--- a/exel-from.xlsx
+++ b/exel-from.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Task" sheetId="1" r:id="rId1"/>
+    <sheet name="File" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -375,41 +375,1404 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Bore Size</v>
+        <v>Product Name</v>
       </c>
       <c r="B1" t="str">
-        <v>Casting Material</v>
+        <v>Product SKU</v>
       </c>
       <c r="C1" t="str">
-        <v>Keyway Size</v>
+        <v>Product Description</v>
       </c>
       <c r="D1" t="str">
-        <v>Product ID</v>
+        <v>Product Additional Description</v>
       </c>
       <c r="E1" t="str">
-        <v>Bushing Size</v>
+        <v>Diameter</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Article Code</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Thread Type</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Thread Size</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Min Material Thickness</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Max Material Thinckness</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Finishing</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Shaft Diameter</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Work Length</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Material 1</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Spindle Speed</v>
+      </c>
+      <c r="P1" t="str">
+        <v>Feed</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>Power</v>
+      </c>
+      <c r="R1" t="str">
+        <v>Material 2</v>
+      </c>
+      <c r="S1" t="str">
+        <v>Spindle Speed 2</v>
+      </c>
+      <c r="T1" t="str">
+        <v>Feed 2</v>
+      </c>
+      <c r="U1" t="str">
+        <v>Power 2</v>
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <v>Flowdrill M08 - 7.3 Short Standard</v>
+      </c>
+      <c r="B2" t="str">
+        <v>#200730</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Flowdrill Ø 7.3 mm diameter with collar for M8 cold forming tap</v>
+      </c>
       <c r="D2" t="str">
-        <v>226945</v>
+        <v>Flowdrill Ø 7.3 mm diameter with collar for M8 cold forming tap</v>
+      </c>
+      <c r="E2" t="str">
+        <v xml:space="preserve">7.3 mm </v>
+      </c>
+      <c r="F2" t="str">
+        <v xml:space="preserve">200730 </v>
+      </c>
+      <c r="G2" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H2" t="str">
+        <v xml:space="preserve">8 x 1.25 </v>
+      </c>
+      <c r="I2" t="str">
+        <v xml:space="preserve">0.04 inch </v>
+      </c>
+      <c r="J2" t="str">
+        <v xml:space="preserve">0.09 inch </v>
+      </c>
+      <c r="K2" t="str">
+        <v xml:space="preserve">With collar </v>
+      </c>
+      <c r="L2" t="str">
+        <v xml:space="preserve">8 mm </v>
+      </c>
+      <c r="M2" t="str">
+        <v xml:space="preserve">13.4 mm </v>
+      </c>
+      <c r="N2" t="str">
+        <v>Steel</v>
+      </c>
+      <c r="O2" t="str">
+        <v xml:space="preserve">2200 </v>
+      </c>
+      <c r="P2" t="str">
+        <v xml:space="preserve">150 mm/min </v>
+      </c>
+      <c r="Q2" t="str">
+        <v xml:space="preserve">1.7 hp </v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <v>Flowdrill M08 - 7.4 Long Flat</v>
+      </c>
+      <c r="B3" t="str">
+        <v>#110740</v>
+      </c>
+      <c r="C3" t="str">
+        <v xml:space="preserve">Flowdrill Ø 7.4 mm flat finishing for M8 cold forming tap </v>
+      </c>
       <c r="D3" t="str">
-        <v>226944</v>
+        <v xml:space="preserve">Flowdrill Ø 7.4 mm flat finishing for M8 cold forming tap </v>
+      </c>
+      <c r="E3" t="str">
+        <v xml:space="preserve">7.4 mm </v>
+      </c>
+      <c r="F3" t="str">
+        <v xml:space="preserve">110740 </v>
+      </c>
+      <c r="G3" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H3" t="str">
+        <v xml:space="preserve">8 x 1.25 </v>
+      </c>
+      <c r="I3" t="str">
+        <v xml:space="preserve">0.12 inch </v>
+      </c>
+      <c r="J3" t="str">
+        <v xml:space="preserve">0.23 inch </v>
+      </c>
+      <c r="K3" t="str">
+        <v xml:space="preserve">Plane surface </v>
+      </c>
+      <c r="L3" t="str">
+        <v xml:space="preserve">8 mm </v>
+      </c>
+      <c r="M3" t="str">
+        <v xml:space="preserve">18.2 mm </v>
+      </c>
+      <c r="N3" t="str">
+        <v>Stainless steel</v>
+      </c>
+      <c r="O3" t="str">
+        <v xml:space="preserve">1700 </v>
+      </c>
+      <c r="P3" t="str">
+        <v xml:space="preserve">120 mm/min </v>
+      </c>
+      <c r="Q3" t="str">
+        <v xml:space="preserve">2.0 hp </v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Flowdrill M08 - 7.4 Long Standard</v>
+      </c>
+      <c r="B4" t="str">
+        <v>#100740</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Flowdrill Ø 7.4 mm diameter with collar for M8 cold forming tap</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Flowdrill Ø 7.4 mm diameter with collar for M8 cold forming tap</v>
+      </c>
+      <c r="E4" t="str">
+        <v xml:space="preserve">7.4 mm </v>
+      </c>
+      <c r="F4" t="str">
+        <v xml:space="preserve">100740 </v>
+      </c>
+      <c r="G4" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H4" t="str">
+        <v xml:space="preserve">8 x 1.25 </v>
+      </c>
+      <c r="I4" t="str">
+        <v xml:space="preserve">0.09 inch </v>
+      </c>
+      <c r="J4" t="str">
+        <v xml:space="preserve">0.13 inch </v>
+      </c>
+      <c r="K4" t="str">
+        <v xml:space="preserve">With collar </v>
+      </c>
+      <c r="L4" t="str">
+        <v xml:space="preserve">8 mm </v>
+      </c>
+      <c r="M4" t="str">
+        <v xml:space="preserve">18.2 mm </v>
+      </c>
+      <c r="N4" t="str">
+        <v>Stainless steel</v>
+      </c>
+      <c r="O4" t="str">
+        <v xml:space="preserve">1900 </v>
+      </c>
+      <c r="P4" t="str">
+        <v xml:space="preserve">150 mm/min </v>
+      </c>
+      <c r="Q4" t="str">
+        <v xml:space="preserve">1.7 hp </v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Flowdrill M08 - 7.4 Short Flat</v>
+      </c>
+      <c r="B5" t="str">
+        <v>#210740</v>
+      </c>
+      <c r="C5" t="str">
+        <v xml:space="preserve">Flowdrill Ø 7.4 mm flat finishing for M8 cold forming tap </v>
+      </c>
+      <c r="D5" t="str">
+        <v xml:space="preserve">Flowdrill Ø 7.4 mm flat finishing for M8 cold forming tap </v>
+      </c>
+      <c r="E5" t="str">
+        <v xml:space="preserve">7.4 mm </v>
+      </c>
+      <c r="F5" t="str">
+        <v xml:space="preserve">210740 </v>
+      </c>
+      <c r="G5" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H5" t="str">
+        <v xml:space="preserve">8 x 1.25 </v>
+      </c>
+      <c r="I5" t="str">
+        <v xml:space="preserve">0.04 inch </v>
+      </c>
+      <c r="J5" t="str">
+        <v xml:space="preserve">0.11 inch </v>
+      </c>
+      <c r="K5" t="str">
+        <v xml:space="preserve">Plane surface </v>
+      </c>
+      <c r="L5" t="str">
+        <v xml:space="preserve">8 mm </v>
+      </c>
+      <c r="M5" t="str">
+        <v xml:space="preserve">13.5 mm </v>
+      </c>
+      <c r="N5" t="str">
+        <v>Stainless steel</v>
+      </c>
+      <c r="O5" t="str">
+        <v xml:space="preserve">1900 </v>
+      </c>
+      <c r="P5" t="str">
+        <v xml:space="preserve">150 mm/min </v>
+      </c>
+      <c r="Q5" t="str">
+        <v xml:space="preserve">1.7 hp </v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Flowdrill M08 - 7.4 Short Standard</v>
+      </c>
+      <c r="B6" t="str">
+        <v>#200740</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Flowdrill Ø 7.4 mm diameter with collar for M8 cold forming tap</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Flowdrill Ø 7.4 mm diameter with collar for M8 cold forming tap</v>
+      </c>
+      <c r="E6" t="str">
+        <v xml:space="preserve">7.4 mm </v>
+      </c>
+      <c r="F6" t="str">
+        <v xml:space="preserve">200740 </v>
+      </c>
+      <c r="G6" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H6" t="str">
+        <v xml:space="preserve">8 x 1.25 </v>
+      </c>
+      <c r="I6" t="str">
+        <v xml:space="preserve">0.04 inch </v>
+      </c>
+      <c r="J6" t="str">
+        <v xml:space="preserve">0.09 inch </v>
+      </c>
+      <c r="K6" t="str">
+        <v xml:space="preserve">With collar </v>
+      </c>
+      <c r="L6" t="str">
+        <v xml:space="preserve">8 mm </v>
+      </c>
+      <c r="M6" t="str">
+        <v xml:space="preserve">13.5 mm </v>
+      </c>
+      <c r="N6" t="str">
+        <v>Stainless steel</v>
+      </c>
+      <c r="O6" t="str">
+        <v xml:space="preserve">1900 </v>
+      </c>
+      <c r="P6" t="str">
+        <v xml:space="preserve">150 mm/min </v>
+      </c>
+      <c r="Q6" t="str">
+        <v xml:space="preserve">1.7 hp </v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Flowdrill M10 - 9.2 Long Flat</v>
+      </c>
+      <c r="B7" t="str">
+        <v>#110920</v>
+      </c>
+      <c r="C7" t="str">
+        <v xml:space="preserve">Flowdrill Ø 9.2 mm flat finishing for M10 cold forming tap </v>
+      </c>
+      <c r="D7" t="str">
+        <v xml:space="preserve">Flowdrill Ø 9.2 mm flat finishing for M10 cold forming tap </v>
+      </c>
+      <c r="E7" t="str">
+        <v xml:space="preserve">9.2 mm </v>
+      </c>
+      <c r="F7" t="str">
+        <v xml:space="preserve">110920 </v>
+      </c>
+      <c r="G7" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H7" t="str">
+        <v xml:space="preserve">10 x 1.50 </v>
+      </c>
+      <c r="I7" t="str">
+        <v xml:space="preserve">0.13 inch </v>
+      </c>
+      <c r="J7" t="str">
+        <v xml:space="preserve">0.26 inch </v>
+      </c>
+      <c r="K7" t="str">
+        <v xml:space="preserve">Plane surface </v>
+      </c>
+      <c r="L7" t="str">
+        <v xml:space="preserve">10 mm </v>
+      </c>
+      <c r="M7" t="str">
+        <v xml:space="preserve">22.6 mm </v>
+      </c>
+      <c r="N7" t="str">
+        <v>Steel</v>
+      </c>
+      <c r="O7" t="str">
+        <v xml:space="preserve">1800 </v>
+      </c>
+      <c r="P7" t="str">
+        <v xml:space="preserve">120 mm/min </v>
+      </c>
+      <c r="Q7" t="str">
+        <v xml:space="preserve">2.7 hp </v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Flowdrill M10 - 9.2 Long Standard</v>
+      </c>
+      <c r="B8" t="str">
+        <v>#100920</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Flowdrill Ø 9.2 mm diameter with collar for M10 cold forming tap</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Flowdrill Ø 9.2 mm diameter with collar for M10 cold forming tap</v>
+      </c>
+      <c r="E8" t="str">
+        <v xml:space="preserve">9.2 mm </v>
+      </c>
+      <c r="F8" t="str">
+        <v xml:space="preserve">100920 </v>
+      </c>
+      <c r="G8" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H8" t="str">
+        <v xml:space="preserve">10 x 1.50 </v>
+      </c>
+      <c r="I8" t="str">
+        <v xml:space="preserve">0.11 inch </v>
+      </c>
+      <c r="J8" t="str">
+        <v xml:space="preserve">0.15 inch </v>
+      </c>
+      <c r="K8" t="str">
+        <v xml:space="preserve">With collar </v>
+      </c>
+      <c r="L8" t="str">
+        <v xml:space="preserve">10 mm </v>
+      </c>
+      <c r="M8" t="str">
+        <v xml:space="preserve">22.6 mm </v>
+      </c>
+      <c r="N8" t="str">
+        <v>Steel</v>
+      </c>
+      <c r="O8" t="str">
+        <v xml:space="preserve">2000 </v>
+      </c>
+      <c r="P8" t="str">
+        <v xml:space="preserve">150 mm/min </v>
+      </c>
+      <c r="Q8" t="str">
+        <v xml:space="preserve">2.0 hp </v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Flowdrill M10 - 9.2 Short Flat</v>
+      </c>
+      <c r="B9" t="str">
+        <v>#210920</v>
+      </c>
+      <c r="C9" t="str">
+        <v xml:space="preserve">Flowdrill Ø 9.2 mm flat finishing for M10 cold forming tap </v>
+      </c>
+      <c r="D9" t="str">
+        <v xml:space="preserve">Flowdrill Ø 9.2 mm flat finishing for M10 cold forming tap </v>
+      </c>
+      <c r="E9" t="str">
+        <v xml:space="preserve">9.2 mm </v>
+      </c>
+      <c r="F9" t="str">
+        <v xml:space="preserve">210920 </v>
+      </c>
+      <c r="G9" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H9" t="str">
+        <v xml:space="preserve">10 x 1.50 </v>
+      </c>
+      <c r="I9" t="str">
+        <v xml:space="preserve">0.04 inch </v>
+      </c>
+      <c r="J9" t="str">
+        <v xml:space="preserve">0.13 inch </v>
+      </c>
+      <c r="K9" t="str">
+        <v xml:space="preserve">Plane surface </v>
+      </c>
+      <c r="L9" t="str">
+        <v xml:space="preserve">10 mm </v>
+      </c>
+      <c r="M9" t="str">
+        <v xml:space="preserve">16.9 mm </v>
+      </c>
+      <c r="N9" t="str">
+        <v>Steel</v>
+      </c>
+      <c r="O9" t="str">
+        <v xml:space="preserve">2000 </v>
+      </c>
+      <c r="P9" t="str">
+        <v xml:space="preserve">150 mm/min </v>
+      </c>
+      <c r="Q9" t="str">
+        <v xml:space="preserve">2.0 hp </v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Flowdrill M10 - 9.2 Short Standard</v>
+      </c>
+      <c r="B10" t="str">
+        <v>#200920</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Flowdrill Ø 9.2 mm diameter with collar for M10 cold forming tap</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Flowdrill Ø 9.2 mm diameter with collar for M10 cold forming tap</v>
+      </c>
+      <c r="E10" t="str">
+        <v xml:space="preserve">9.2 mm </v>
+      </c>
+      <c r="F10" t="str">
+        <v xml:space="preserve">200920 </v>
+      </c>
+      <c r="G10" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H10" t="str">
+        <v xml:space="preserve">10 x 1.50 </v>
+      </c>
+      <c r="I10" t="str">
+        <v xml:space="preserve">0.04 inch </v>
+      </c>
+      <c r="J10" t="str">
+        <v xml:space="preserve">0.10 inch </v>
+      </c>
+      <c r="K10" t="str">
+        <v xml:space="preserve">With collar </v>
+      </c>
+      <c r="L10" t="str">
+        <v xml:space="preserve">10 mm </v>
+      </c>
+      <c r="M10" t="str">
+        <v xml:space="preserve">16.9 mm </v>
+      </c>
+      <c r="N10" t="str">
+        <v>Steel</v>
+      </c>
+      <c r="O10" t="str">
+        <v xml:space="preserve">2000 </v>
+      </c>
+      <c r="P10" t="str">
+        <v xml:space="preserve">150 mm/min </v>
+      </c>
+      <c r="Q10" t="str">
+        <v xml:space="preserve">2.0 hp </v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Flowdrill M10 - 9.3 Long Flat</v>
+      </c>
+      <c r="B11" t="str">
+        <v>#110930</v>
+      </c>
+      <c r="C11" t="str">
+        <v xml:space="preserve">Flowdrill Ø 9.3 mm flat finishing for M10 cold forming tap </v>
+      </c>
+      <c r="D11" t="str">
+        <v xml:space="preserve">Flowdrill Ø 9.3 mm flat finishing for M10 cold forming tap </v>
+      </c>
+      <c r="E11" t="str">
+        <v xml:space="preserve">9.3 mm </v>
+      </c>
+      <c r="F11" t="str">
+        <v xml:space="preserve">110930 </v>
+      </c>
+      <c r="G11" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H11" t="str">
+        <v xml:space="preserve">10 x 1.50 </v>
+      </c>
+      <c r="I11" t="str">
+        <v xml:space="preserve">0.13 inch </v>
+      </c>
+      <c r="J11" t="str">
+        <v xml:space="preserve">0.26 inch </v>
+      </c>
+      <c r="K11" t="str">
+        <v xml:space="preserve">Plane surface </v>
+      </c>
+      <c r="L11" t="str">
+        <v xml:space="preserve">10 mm </v>
+      </c>
+      <c r="M11" t="str">
+        <v xml:space="preserve">22.8 mm </v>
+      </c>
+      <c r="N11" t="str">
+        <v>Stainless steel</v>
+      </c>
+      <c r="O11" t="str">
+        <v xml:space="preserve">1500 </v>
+      </c>
+      <c r="P11" t="str">
+        <v xml:space="preserve">120 mm/min </v>
+      </c>
+      <c r="Q11" t="str">
+        <v xml:space="preserve">2.7 hp </v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Flowdrill M10 - 9.3 Long Standard</v>
+      </c>
+      <c r="B12" t="str">
+        <v>#100930</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Flowdrill Ø 9.3 mm diameter with collar for M10 cold forming tap</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Flowdrill Ø 9.3 mm diameter with collar for M10 cold forming tap</v>
+      </c>
+      <c r="E12" t="str">
+        <v xml:space="preserve">9.3 mm </v>
+      </c>
+      <c r="F12" t="str">
+        <v xml:space="preserve">100930 </v>
+      </c>
+      <c r="G12" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H12" t="str">
+        <v xml:space="preserve">10 x 1.50 </v>
+      </c>
+      <c r="I12" t="str">
+        <v xml:space="preserve">0.11 inch </v>
+      </c>
+      <c r="J12" t="str">
+        <v xml:space="preserve">0.15 inch </v>
+      </c>
+      <c r="K12" t="str">
+        <v xml:space="preserve">With collar </v>
+      </c>
+      <c r="L12" t="str">
+        <v xml:space="preserve">10 mm </v>
+      </c>
+      <c r="M12" t="str">
+        <v xml:space="preserve">22.8 mm </v>
+      </c>
+      <c r="N12" t="str">
+        <v>Stainless steel</v>
+      </c>
+      <c r="O12" t="str">
+        <v xml:space="preserve">1700 </v>
+      </c>
+      <c r="P12" t="str">
+        <v xml:space="preserve">150 mm/min </v>
+      </c>
+      <c r="Q12" t="str">
+        <v xml:space="preserve">2.0 hp </v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Flowdrill M10 - 9.3 Short Flat</v>
+      </c>
+      <c r="B13" t="str">
+        <v>#210930</v>
+      </c>
+      <c r="C13" t="str">
+        <v xml:space="preserve">Flowdrill Ø 9.3 mm flat finishing for M10 cold forming tap </v>
+      </c>
+      <c r="D13" t="str">
+        <v xml:space="preserve">Flowdrill Ø 9.3 mm flat finishing for M10 cold forming tap </v>
+      </c>
+      <c r="E13" t="str">
+        <v xml:space="preserve">9.3 mm </v>
+      </c>
+      <c r="F13" t="str">
+        <v xml:space="preserve">210930 </v>
+      </c>
+      <c r="G13" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H13" t="str">
+        <v xml:space="preserve">10 x 1.50 </v>
+      </c>
+      <c r="I13" t="str">
+        <v xml:space="preserve">0.04 inch </v>
+      </c>
+      <c r="J13" t="str">
+        <v xml:space="preserve">0.13 inch </v>
+      </c>
+      <c r="K13" t="str">
+        <v xml:space="preserve">Plane surface </v>
+      </c>
+      <c r="L13" t="str">
+        <v xml:space="preserve">10 mm </v>
+      </c>
+      <c r="M13" t="str">
+        <v xml:space="preserve">17.0 mm </v>
+      </c>
+      <c r="N13" t="str">
+        <v>Stainless steel</v>
+      </c>
+      <c r="O13" t="str">
+        <v xml:space="preserve">1700 </v>
+      </c>
+      <c r="P13" t="str">
+        <v xml:space="preserve">150 mm/min </v>
+      </c>
+      <c r="Q13" t="str">
+        <v xml:space="preserve">2.0 hp </v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Flowdrill M10 - 9.3 Short Standard</v>
+      </c>
+      <c r="B14" t="str">
+        <v>#200930</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Flowdrill Ø 9.3 mm diameter with collar for M10 cold forming tap</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Flowdrill Ø 9.3 mm diameter with collar for M10 cold forming tap</v>
+      </c>
+      <c r="E14" t="str">
+        <v xml:space="preserve">9.3 mm </v>
+      </c>
+      <c r="F14" t="str">
+        <v xml:space="preserve">200930 </v>
+      </c>
+      <c r="G14" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H14" t="str">
+        <v xml:space="preserve">10 x 1.50 </v>
+      </c>
+      <c r="I14" t="str">
+        <v xml:space="preserve">0.04 inch </v>
+      </c>
+      <c r="J14" t="str">
+        <v xml:space="preserve">0.10 inch </v>
+      </c>
+      <c r="K14" t="str">
+        <v xml:space="preserve">With collar </v>
+      </c>
+      <c r="L14" t="str">
+        <v xml:space="preserve">10 mm </v>
+      </c>
+      <c r="M14" t="str">
+        <v xml:space="preserve">17.0 mm </v>
+      </c>
+      <c r="N14" t="str">
+        <v>Stainless steel</v>
+      </c>
+      <c r="O14" t="str">
+        <v xml:space="preserve">1700 </v>
+      </c>
+      <c r="P14" t="str">
+        <v xml:space="preserve">150 mm/min </v>
+      </c>
+      <c r="Q14" t="str">
+        <v xml:space="preserve">2.0 hp </v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Flowdrill M12 - 10.9 Long Flat</v>
+      </c>
+      <c r="B15" t="str">
+        <v>#111090</v>
+      </c>
+      <c r="C15" t="str">
+        <v xml:space="preserve">Flowdrill Ø 10.9 mm flat finishing for M12 cold forming tap </v>
+      </c>
+      <c r="D15" t="str">
+        <v xml:space="preserve">Flowdrill Ø 10.9 mm flat finishing for M12 cold forming tap </v>
+      </c>
+      <c r="E15" t="str">
+        <v xml:space="preserve">10.9 mm </v>
+      </c>
+      <c r="F15" t="str">
+        <v xml:space="preserve">111090 </v>
+      </c>
+      <c r="G15" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H15" t="str">
+        <v xml:space="preserve">12 x 1.75 </v>
+      </c>
+      <c r="I15" t="str">
+        <v xml:space="preserve">0.14 inch </v>
+      </c>
+      <c r="J15" t="str">
+        <v xml:space="preserve">0.28 inch </v>
+      </c>
+      <c r="K15" t="str">
+        <v xml:space="preserve">Plane surface </v>
+      </c>
+      <c r="L15" t="str">
+        <v xml:space="preserve">12 mm </v>
+      </c>
+      <c r="M15" t="str">
+        <v xml:space="preserve">26.3 mm </v>
+      </c>
+      <c r="N15" t="str">
+        <v>Steel</v>
+      </c>
+      <c r="O15" t="str">
+        <v xml:space="preserve">1600 </v>
+      </c>
+      <c r="P15" t="str">
+        <v xml:space="preserve">120 mm/min </v>
+      </c>
+      <c r="Q15" t="str">
+        <v xml:space="preserve">4.0 hp </v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Flowdrill M12 - 10.9 Long Standard</v>
+      </c>
+      <c r="B16" t="str">
+        <v>#101090</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Flowdrill Ø 10.9 mm diameter with collar for M12 cold forming tap</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Flowdrill Ø 10.9 mm diameter with collar for M12 cold forming tap</v>
+      </c>
+      <c r="E16" t="str">
+        <v xml:space="preserve">10.9 mm </v>
+      </c>
+      <c r="F16" t="str">
+        <v xml:space="preserve">101090 </v>
+      </c>
+      <c r="G16" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H16" t="str">
+        <v xml:space="preserve">12 x 1.75 </v>
+      </c>
+      <c r="I16" t="str">
+        <v xml:space="preserve">0.11 inch </v>
+      </c>
+      <c r="J16" t="str">
+        <v xml:space="preserve">0.16 inch </v>
+      </c>
+      <c r="K16" t="str">
+        <v xml:space="preserve">With collar </v>
+      </c>
+      <c r="L16" t="str">
+        <v xml:space="preserve">12 mm </v>
+      </c>
+      <c r="M16" t="str">
+        <v xml:space="preserve">26.3 </v>
+      </c>
+      <c r="N16" t="str">
+        <v>Steel</v>
+      </c>
+      <c r="O16" t="str">
+        <v xml:space="preserve">1800 </v>
+      </c>
+      <c r="P16" t="str">
+        <v xml:space="preserve">150 mm/min </v>
+      </c>
+      <c r="Q16" t="str">
+        <v xml:space="preserve">2.3 hp </v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Flowdrill M12 - 10.9 Short Flat</v>
+      </c>
+      <c r="B17" t="str">
+        <v>#211090</v>
+      </c>
+      <c r="C17" t="str">
+        <v xml:space="preserve">Flowdrill Ø 10.9 mm flat finishing for M12 cold forming tap </v>
+      </c>
+      <c r="D17" t="str">
+        <v xml:space="preserve">Flowdrill Ø 10.9 mm flat finishing for M12 cold forming tap </v>
+      </c>
+      <c r="E17" t="str">
+        <v xml:space="preserve">10.9 mm </v>
+      </c>
+      <c r="F17" t="str">
+        <v xml:space="preserve">211090 </v>
+      </c>
+      <c r="G17" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H17" t="str">
+        <v xml:space="preserve">12 x 1.75 </v>
+      </c>
+      <c r="I17" t="str">
+        <v xml:space="preserve">0.04 inch </v>
+      </c>
+      <c r="J17" t="str">
+        <v xml:space="preserve">0.14 inch </v>
+      </c>
+      <c r="K17" t="str">
+        <v xml:space="preserve">Plane surface </v>
+      </c>
+      <c r="L17" t="str">
+        <v xml:space="preserve">12 mm </v>
+      </c>
+      <c r="M17" t="str">
+        <v xml:space="preserve">19.7 mm </v>
+      </c>
+      <c r="N17" t="str">
+        <v>Steel</v>
+      </c>
+      <c r="O17" t="str">
+        <v xml:space="preserve">1800 </v>
+      </c>
+      <c r="P17" t="str">
+        <v xml:space="preserve">150 mm/min </v>
+      </c>
+      <c r="Q17" t="str">
+        <v xml:space="preserve">2.3 hp </v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Flowdrill M12 - 10.9 Short Standard</v>
+      </c>
+      <c r="B18" t="str">
+        <v>#201090</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Flowdrill Ø 10.9 mm diameter with collar for M12 cold forming tap</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Flowdrill Ø 10.9 mm diameter with collar for M12 cold forming tap</v>
+      </c>
+      <c r="E18" t="str">
+        <v xml:space="preserve">10.9 mm </v>
+      </c>
+      <c r="F18" t="str">
+        <v xml:space="preserve">201090 </v>
+      </c>
+      <c r="G18" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H18" t="str">
+        <v xml:space="preserve">12 x 1.75 </v>
+      </c>
+      <c r="I18" t="str">
+        <v xml:space="preserve">0.04 inch </v>
+      </c>
+      <c r="J18" t="str">
+        <v xml:space="preserve">0.11 inch </v>
+      </c>
+      <c r="K18" t="str">
+        <v xml:space="preserve">With collar </v>
+      </c>
+      <c r="L18" t="str">
+        <v xml:space="preserve">12 mm </v>
+      </c>
+      <c r="M18" t="str">
+        <v xml:space="preserve">19.7 mm </v>
+      </c>
+      <c r="N18" t="str">
+        <v>Steel</v>
+      </c>
+      <c r="O18" t="str">
+        <v xml:space="preserve">1800 </v>
+      </c>
+      <c r="P18" t="str">
+        <v xml:space="preserve">150 mm/min </v>
+      </c>
+      <c r="Q18" t="str">
+        <v xml:space="preserve">2.3 hp </v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Flowdrill M12 - 11.0 Long Flat</v>
+      </c>
+      <c r="B19" t="str">
+        <v>#111100</v>
+      </c>
+      <c r="C19" t="str">
+        <v xml:space="preserve">Flowdrill Ø 11.0 mm flat finishing for M12 cold forming tap </v>
+      </c>
+      <c r="D19" t="str">
+        <v xml:space="preserve">Flowdrill Ø 11.0 mm flat finishing for M12 cold forming tap </v>
+      </c>
+      <c r="E19" t="str">
+        <v xml:space="preserve">11.0 mm </v>
+      </c>
+      <c r="F19" t="str">
+        <v xml:space="preserve">111100 </v>
+      </c>
+      <c r="G19" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H19" t="str">
+        <v xml:space="preserve">12 x 1.75 </v>
+      </c>
+      <c r="I19" t="str">
+        <v xml:space="preserve">0.14 inch </v>
+      </c>
+      <c r="J19" t="str">
+        <v xml:space="preserve">0.28 inch </v>
+      </c>
+      <c r="K19" t="str">
+        <v xml:space="preserve">Plane surface </v>
+      </c>
+      <c r="L19" t="str">
+        <v xml:space="preserve">12 mm </v>
+      </c>
+      <c r="M19" t="str">
+        <v xml:space="preserve">26.6 mm </v>
+      </c>
+      <c r="N19" t="str">
+        <v>Stainless steel</v>
+      </c>
+      <c r="O19" t="str">
+        <v xml:space="preserve">1400 </v>
+      </c>
+      <c r="P19" t="str">
+        <v xml:space="preserve">120 mm/min </v>
+      </c>
+      <c r="Q19" t="str">
+        <v xml:space="preserve">4.0 hp </v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Flowdrill M12 - 11.0 Long Standard</v>
+      </c>
+      <c r="B20" t="str">
+        <v>#101100</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Flowdrill Ø 11.0 mm diameter with collar for M12 cold forming tap</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Flowdrill Ø 11.0 mm diameter with collar for M12 cold forming tap</v>
+      </c>
+      <c r="E20" t="str">
+        <v xml:space="preserve">11.0 mm </v>
+      </c>
+      <c r="F20" t="str">
+        <v xml:space="preserve">101100 </v>
+      </c>
+      <c r="G20" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H20" t="str">
+        <v xml:space="preserve">12 x 1.75 </v>
+      </c>
+      <c r="I20" t="str">
+        <v xml:space="preserve">0.11 inch </v>
+      </c>
+      <c r="J20" t="str">
+        <v xml:space="preserve">0.16 inch </v>
+      </c>
+      <c r="K20" t="str">
+        <v xml:space="preserve">With collar </v>
+      </c>
+      <c r="L20" t="str">
+        <v xml:space="preserve">12 mm </v>
+      </c>
+      <c r="M20" t="str">
+        <v xml:space="preserve">26.6 </v>
+      </c>
+      <c r="N20" t="str">
+        <v>Stainless steel</v>
+      </c>
+      <c r="O20" t="str">
+        <v xml:space="preserve">1500 </v>
+      </c>
+      <c r="P20" t="str">
+        <v xml:space="preserve">150 mm/min </v>
+      </c>
+      <c r="Q20" t="str">
+        <v xml:space="preserve">2.3 hp </v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Flowdrill M12 - 11.0 Short Flat</v>
+      </c>
+      <c r="B21" t="str">
+        <v>#211100</v>
+      </c>
+      <c r="C21" t="str">
+        <v xml:space="preserve">Flowdrill Ø 11.0 mm flat finishing for M12 cold forming tap </v>
+      </c>
+      <c r="D21" t="str">
+        <v xml:space="preserve">Flowdrill Ø 11.0 mm flat finishing for M12 cold forming tap </v>
+      </c>
+      <c r="E21" t="str">
+        <v xml:space="preserve">11.0 mm </v>
+      </c>
+      <c r="F21" t="str">
+        <v xml:space="preserve">211100 </v>
+      </c>
+      <c r="G21" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H21" t="str">
+        <v xml:space="preserve">12 x 1.75 </v>
+      </c>
+      <c r="I21" t="str">
+        <v xml:space="preserve">0.04 inch </v>
+      </c>
+      <c r="J21" t="str">
+        <v xml:space="preserve">0.14 inch </v>
+      </c>
+      <c r="K21" t="str">
+        <v xml:space="preserve">Plane surface </v>
+      </c>
+      <c r="L21" t="str">
+        <v xml:space="preserve">12 mm </v>
+      </c>
+      <c r="M21" t="str">
+        <v xml:space="preserve">19.9 mm </v>
+      </c>
+      <c r="N21" t="str">
+        <v>Stainless steel</v>
+      </c>
+      <c r="O21" t="str">
+        <v xml:space="preserve">1500 </v>
+      </c>
+      <c r="P21" t="str">
+        <v xml:space="preserve">150 mm/min </v>
+      </c>
+      <c r="Q21" t="str">
+        <v xml:space="preserve">2.3 hp </v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Flowdrill M12 - 11.0 Short Standard</v>
+      </c>
+      <c r="B22" t="str">
+        <v>#201100</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Flowdrill Ø 11.0 mm diameter with collar for M12 cold forming tap</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Flowdrill Ø 11.0 mm diameter with collar for M12 cold forming tap</v>
+      </c>
+      <c r="E22" t="str">
+        <v xml:space="preserve">10.9 mm </v>
+      </c>
+      <c r="F22" t="str">
+        <v xml:space="preserve">201100 </v>
+      </c>
+      <c r="G22" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H22" t="str">
+        <v xml:space="preserve">12 x 1.75 </v>
+      </c>
+      <c r="I22" t="str">
+        <v xml:space="preserve">0.04 inch </v>
+      </c>
+      <c r="J22" t="str">
+        <v xml:space="preserve">0.11 inch </v>
+      </c>
+      <c r="K22" t="str">
+        <v xml:space="preserve">With collar </v>
+      </c>
+      <c r="L22" t="str">
+        <v xml:space="preserve">12 mm </v>
+      </c>
+      <c r="M22" t="str">
+        <v xml:space="preserve">19.9 mm </v>
+      </c>
+      <c r="N22" t="str">
+        <v>Stainless steel</v>
+      </c>
+      <c r="O22" t="str">
+        <v xml:space="preserve">1500 </v>
+      </c>
+      <c r="P22" t="str">
+        <v xml:space="preserve">150 mm/min </v>
+      </c>
+      <c r="Q22" t="str">
+        <v xml:space="preserve">2.3 hp </v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Flowdrill M14 - 13.0 Long Flat</v>
+      </c>
+      <c r="B23" t="str">
+        <v>#111300</v>
+      </c>
+      <c r="C23" t="str">
+        <v xml:space="preserve">Flowdrill Ø 13.0 mm flat finishing for M14 cold forming tap </v>
+      </c>
+      <c r="D23" t="str">
+        <v xml:space="preserve">Flowdrill Ø 13.0 mm flat finishing for M14 cold forming tap </v>
+      </c>
+      <c r="E23" t="str">
+        <v xml:space="preserve">13.0 mm </v>
+      </c>
+      <c r="F23" t="str">
+        <v xml:space="preserve">111300 </v>
+      </c>
+      <c r="G23" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H23" t="str">
+        <v xml:space="preserve">14 x 2.00 </v>
+      </c>
+      <c r="I23" t="str">
+        <v xml:space="preserve">0.16 inch </v>
+      </c>
+      <c r="J23" t="str">
+        <v xml:space="preserve">0.31 inch </v>
+      </c>
+      <c r="K23" t="str">
+        <v xml:space="preserve">Plane surface </v>
+      </c>
+      <c r="L23" t="str">
+        <v xml:space="preserve">14 mm </v>
+      </c>
+      <c r="M23" t="str">
+        <v xml:space="preserve">31.1 mm </v>
+      </c>
+      <c r="N23" t="str">
+        <v>Steel</v>
+      </c>
+      <c r="O23" t="str">
+        <v xml:space="preserve">1400 </v>
+      </c>
+      <c r="P23" t="str">
+        <v xml:space="preserve">100 mm/min </v>
+      </c>
+      <c r="Q23" t="str">
+        <v xml:space="preserve">4.0 hp </v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Flowdrill M14 - 13.0 Long Standard</v>
+      </c>
+      <c r="B24" t="str">
+        <v>#101300</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Flowdrill Ø 13.0 mm diameter with collar for M14 cold forming tap</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Flowdrill Ø 13.0 mm diameter with collar for M14 cold forming tap</v>
+      </c>
+      <c r="E24" t="str">
+        <v xml:space="preserve">13.0 mm </v>
+      </c>
+      <c r="F24" t="str">
+        <v xml:space="preserve">101300 </v>
+      </c>
+      <c r="G24" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H24" t="str">
+        <v xml:space="preserve">14 x 2.00 </v>
+      </c>
+      <c r="I24" t="str">
+        <v xml:space="preserve">0.12 inch </v>
+      </c>
+      <c r="J24" t="str">
+        <v xml:space="preserve">0.18 inch </v>
+      </c>
+      <c r="K24" t="str">
+        <v xml:space="preserve">With collar </v>
+      </c>
+      <c r="L24" t="str">
+        <v xml:space="preserve">14 mm </v>
+      </c>
+      <c r="M24" t="str">
+        <v xml:space="preserve">31.1 mm </v>
+      </c>
+      <c r="N24" t="str">
+        <v>Steel</v>
+      </c>
+      <c r="O24" t="str">
+        <v xml:space="preserve">1600 </v>
+      </c>
+      <c r="P24" t="str">
+        <v xml:space="preserve">150 mm/min </v>
+      </c>
+      <c r="Q24" t="str">
+        <v xml:space="preserve">3.4 hp </v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Flowdrill M14 - 13.0 Short Flat</v>
+      </c>
+      <c r="B25" t="str">
+        <v>#211300</v>
+      </c>
+      <c r="C25" t="str">
+        <v xml:space="preserve">Flowdrill Ø 13.0 mm flat finishing for M14 cold forming tap </v>
+      </c>
+      <c r="D25" t="str">
+        <v xml:space="preserve">Flowdrill Ø 13.0 mm flat finishing for M14 cold forming tap </v>
+      </c>
+      <c r="E25" t="str">
+        <v xml:space="preserve">13.0 mm </v>
+      </c>
+      <c r="F25" t="str">
+        <v xml:space="preserve">211300 </v>
+      </c>
+      <c r="G25" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H25" t="str">
+        <v xml:space="preserve">14 x 2.00 </v>
+      </c>
+      <c r="I25" t="str">
+        <v xml:space="preserve">0.04 inch </v>
+      </c>
+      <c r="J25" t="str">
+        <v xml:space="preserve">0.15 inch </v>
+      </c>
+      <c r="K25" t="str">
+        <v xml:space="preserve">Plane surface </v>
+      </c>
+      <c r="L25" t="str">
+        <v xml:space="preserve">14 mm </v>
+      </c>
+      <c r="M25" t="str">
+        <v xml:space="preserve">23.3 mm </v>
+      </c>
+      <c r="N25" t="str">
+        <v>Steel</v>
+      </c>
+      <c r="O25" t="str">
+        <v xml:space="preserve">1600 </v>
+      </c>
+      <c r="P25" t="str">
+        <v xml:space="preserve">150 mm/min </v>
+      </c>
+      <c r="Q25" t="str">
+        <v xml:space="preserve">2.7 hp </v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Flowdrill M14 - 13.0 Short Standard</v>
+      </c>
+      <c r="B26" t="str">
+        <v>#201300</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Flowdrill Ø 13.0 mm diameter with collar for M14 cold forming tap</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Flowdrill Ø 13.0 mm diameter with collar for M14 cold forming tap</v>
+      </c>
+      <c r="E26" t="str">
+        <v xml:space="preserve">13.0 mm </v>
+      </c>
+      <c r="F26" t="str">
+        <v xml:space="preserve">201300 </v>
+      </c>
+      <c r="G26" t="str">
+        <v xml:space="preserve">Metric </v>
+      </c>
+      <c r="H26" t="str">
+        <v xml:space="preserve">14 x 2.00 </v>
+      </c>
+      <c r="I26" t="str">
+        <v xml:space="preserve">0.04 inch </v>
+      </c>
+      <c r="J26" t="str">
+        <v xml:space="preserve">0.12 inch </v>
+      </c>
+      <c r="K26" t="str">
+        <v xml:space="preserve">With collar </v>
+      </c>
+      <c r="L26" t="str">
+        <v xml:space="preserve">14 mm </v>
+      </c>
+      <c r="M26" t="str">
+        <v xml:space="preserve">23.3 mm </v>
+      </c>
+      <c r="N26" t="str">
+        <v>Steel</v>
+      </c>
+      <c r="O26" t="str">
+        <v xml:space="preserve">1600 </v>
+      </c>
+      <c r="P26" t="str">
+        <v xml:space="preserve">150 mm/min </v>
+      </c>
+      <c r="Q26" t="str">
+        <v xml:space="preserve">2.7 hp </v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:U26"/>
   </ignoredErrors>
 </worksheet>
 </file>